--- a/template_kqht.xlsx
+++ b/template_kqht.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Hlk193875250" localSheetId="0">hks!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">hks!$A$1:$K$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">hks!$A$1:$K$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -206,14 +206,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -501,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -517,16 +517,16 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
@@ -549,43 +549,43 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A5" s="5"/>
@@ -786,61 +786,61 @@
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
@@ -863,43 +863,43 @@
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A30" s="5"/>
@@ -1100,61 +1100,61 @@
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
@@ -1177,43 +1177,43 @@
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A54" s="3"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="7"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A55" s="5"/>
@@ -1414,120 +1414,133 @@
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A77" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-    </row>
-    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I78" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A80" s="3"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="4" t="s">
+    <row r="79" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A79" s="3"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K80" s="7"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A81" s="5"/>
@@ -1711,66 +1724,77 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+    <row r="95" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="B96:K96"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="B70:K70"/>
+    <mergeCell ref="B71:K71"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:K77"/>
+    <mergeCell ref="B78:D79"/>
+    <mergeCell ref="E78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="E53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B51:K51"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B47:K47"/>
     <mergeCell ref="B27:K27"/>
@@ -1787,30 +1811,6 @@
     <mergeCell ref="B28:D29"/>
     <mergeCell ref="E28:G29"/>
     <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="B96:K96"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="B72:K72"/>
-    <mergeCell ref="B77:K77"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:K80"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_kqht.xlsx
+++ b/template_kqht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python-Code\College-ERP-v1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python-Code\College-ERP-v1.1\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
   </sheets>
   <definedNames>
     <definedName name="_Hlk193875250" localSheetId="0">hks!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">hks!$A$1:$K$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Môn học/</t>
   </si>
@@ -79,13 +78,25 @@
   </si>
   <si>
     <t>KỲ THỨ: 4</t>
+  </si>
+  <si>
+    <t>KẾT QUẢ HỌC TẬP</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +121,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -186,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -206,16 +224,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,77 +531,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="36.1328125" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.953125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -579,78 +572,83 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A10" s="5"/>
@@ -782,215 +780,189 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A26" s="6" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="2" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="2" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="4" t="s">
+    <row r="36" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A36" s="3"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A37" s="5"/>
@@ -1096,241 +1068,215 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A46" s="1" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A47" s="1" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A51" s="6" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A60" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A52" s="2" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A53" s="2" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B62" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I62" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9" t="s">
+      <c r="J62" s="14"/>
+      <c r="K62" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A54" s="3"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="4" t="s">
+    <row r="63" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A63" s="3"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A64" s="5"/>
@@ -1410,127 +1356,142 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A71" s="1" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="8"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-    </row>
-    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -1542,8 +1503,10 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A81" s="5"/>
+    <row r="81" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -1555,122 +1518,79 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+    <row r="87" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+    </row>
+    <row r="89" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="76.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A90" s="3"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="14"/>
     </row>
     <row r="91" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
       <c r="A91" s="5"/>
@@ -1724,96 +1644,228 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.25" x14ac:dyDescent="0.75">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A96" s="1" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A97" s="1" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="B96:K96"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="B72:K72"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B77:K77"/>
-    <mergeCell ref="B78:D79"/>
-    <mergeCell ref="E78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="E53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:H29"/>
+  <mergeCells count="29">
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:D63"/>
+    <mergeCell ref="E62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="94" fitToHeight="4" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>